--- a/epa-shop-main/base/Produtos_epa.xlsx
+++ b/epa-shop-main/base/Produtos_epa.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202302198651\Downloads\epa-petshop-powerbi-main\epa-petshop-powerbi-main\epa-shop-main\base\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -37,9 +45,6 @@
     <t>Alimento</t>
   </si>
   <si>
-    <t>Gatito</t>
-  </si>
-  <si>
     <t>R$ 21,00</t>
   </si>
   <si>
@@ -136,9 +141,6 @@
     <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Guia+Gatito.png</t>
   </si>
   <si>
-    <t>Cachorrito</t>
-  </si>
-  <si>
     <t>R$ 42,00</t>
   </si>
   <si>
@@ -194,41 +196,60 @@
   </si>
   <si>
     <t>https://caelum-online-public.s3.amazonaws.com/2673-formulas-dax/Guia+Cachorrito.png</t>
+  </si>
+  <si>
+    <t>Gato</t>
+  </si>
+  <si>
+    <t>Cachorro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="4"/>
       <name val="Inherit"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="4"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="4"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -236,7 +257,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -246,51 +267,64 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -480,23 +514,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.13"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,9 +555,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -527,13 +566,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -542,24 +581,24 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -568,24 +607,24 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -594,24 +633,24 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -620,24 +659,24 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -646,24 +685,24 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -672,24 +711,24 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -698,24 +737,24 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -724,24 +763,24 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -750,24 +789,24 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -775,9 +814,9 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -786,13 +825,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -801,24 +840,24 @@
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -827,24 +866,24 @@
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -853,24 +892,24 @@
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -879,24 +918,24 @@
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -905,24 +944,24 @@
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -931,24 +970,24 @@
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -957,24 +996,24 @@
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -983,24 +1022,24 @@
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1009,24 +1048,24 @@
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1035,32 +1074,36 @@
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="29">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="F29" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="F4"/>
-    <hyperlink r:id="rId4" ref="F5"/>
-    <hyperlink r:id="rId5" ref="F6"/>
-    <hyperlink r:id="rId6" ref="F7"/>
-    <hyperlink r:id="rId7" ref="F8"/>
-    <hyperlink r:id="rId8" ref="F9"/>
-    <hyperlink r:id="rId9" ref="F10"/>
-    <hyperlink r:id="rId10" ref="F11"/>
-    <hyperlink r:id="rId11" ref="F12"/>
-    <hyperlink r:id="rId12" ref="F13"/>
-    <hyperlink r:id="rId13" ref="F14"/>
-    <hyperlink r:id="rId14" ref="F15"/>
-    <hyperlink r:id="rId15" ref="F16"/>
-    <hyperlink r:id="rId16" ref="F17"/>
-    <hyperlink r:id="rId17" ref="F18"/>
-    <hyperlink r:id="rId18" ref="F19"/>
-    <hyperlink r:id="rId19" ref="F20"/>
-    <hyperlink r:id="rId20" ref="F21"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>